--- a/Data/weapons_missile_table.xlsx
+++ b/Data/weapons_missile_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge.WARWICK\My Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Stat_blocks\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1324B3A-D0D5-4DD3-B924-E1FAA7A65477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D20DDA-9C8C-46E4-B1BC-EBF81C647274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="-1"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>There is a –05% chance to hit for each 3 meters of height.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There is a –05% chance to hit for each 3 meters of height.  meters dropped</t>
   </si>
 </sst>
 </file>
@@ -530,7 +527,7 @@
     <col min="8" max="8" width="10.46838665008545" customWidth="1"/>
     <col min="9" max="9" width="14.28674602508545" customWidth="1"/>
     <col min="10" max="10" width="54.50917053222656" customWidth="1"/>
-    <col min="11" max="11" width="69.82601165771484" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -910,9 +907,6 @@
       <c r="J18" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
   <headerFooter/>

--- a/Data/weapons_missile_table.xlsx
+++ b/Data/weapons_missile_table.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>There is a –05% chance to hit for each 3 meters of height.</t>
+  </si>
+  <si>
+    <t>Spit</t>
+  </si>
+  <si>
+    <t>Krashtkid</t>
+  </si>
+  <si>
+    <t>Spit: The spit of the krarshtkid is a gummy, web-like mess called pratzim. It has a potency of 15. A victim hit is entangled by the saliva and must make a STR resistance roll against the potency of the pratzim. A missed roll means that the victim is bound, may not fight with any weapon, and may move only at a rate of 2. Each subsequent round the victim may attempt another resistance roll to overcome the spit’s effect. It will remain on the adventurer until all garments can be thoroughly cleansed</t>
   </si>
 </sst>
 </file>
@@ -508,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
@@ -524,9 +533,9 @@
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.46838665008545" customWidth="1"/>
+    <col min="8" max="8" width="10.600765228271484" customWidth="1"/>
     <col min="9" max="9" width="14.28674602508545" customWidth="1"/>
-    <col min="10" max="10" width="54.50917053222656" customWidth="1"/>
+    <col min="10" max="10" width="458.2352294921875" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -908,6 +917,26 @@
         <v>46</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="0">
+        <v>80</v>
+      </c>
+      <c r="F19" s="0">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
